--- a/agents/VEED/VEED-Data-Contents.xlsx
+++ b/agents/VEED/VEED-Data-Contents.xlsx
@@ -51,16 +51,16 @@
     <t xml:space="preserve">sub-title</t>
   </si>
   <si>
-    <t xml:space="preserve">Based on official disease reports to the OIE</t>
+    <t xml:space="preserve">Based on official disease reports to the WOAH</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">Venezuelan equine encephalitis is a disease listed in the World Organisation for Animal Health ({ref009:OIE}) Terrestrial Animal Health Code. The map to the right displays occurrence reported to the {ref001:OIE-WAHIS} system since 2005.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As described in the OIE {ref005:Terrestrial Animal Health Code}, the OIE early warning system includes immediate notifications and follow-up reports on:</t>
+    <t xml:space="preserve">Venezuelan equine encephalitis is a disease listed in the World Organisation for Animal Health ({ref009:WOAH}) Terrestrial Animal Health Code. The map to the right displays occurrence reported to the {ref001:WOAH-WAHIS} system since 2005.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As described in the WOAH {ref005:Terrestrial Animal Health Code}, the WOAH early warning system includes immediate notifications and follow-up reports on:</t>
   </si>
   <si>
     <t xml:space="preserve">list</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">Occurrence of a listed disease in an unusual host species.</t>
   </si>
   <si>
-    <t xml:space="preserve">Information on stable situations (disease present or absent in a zone or country) is provided by countries through the OIE monitoring system, which is a different reporting channel. This information is available in a different spatial and temporal scale, which can be browsed on the map independently from the outbreak notification points.</t>
+    <t xml:space="preserve">Information on stable situations (disease present or absent in a zone or country) is provided by countries through the WOAH monitoring system, which is a different reporting channel. This information is available in a different spatial and temporal scale, which can be browsed on the map independently from the outbreak notification points.</t>
   </si>
   <si>
     <t xml:space="preserve">annotation</t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:OIE-WAHIS}.</t>
+    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:WOAH-WAHIS}.</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -246,7 +246,7 @@
     <t xml:space="preserve">Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-prescribed tests for international trade include ({ref010:OIE, Terrestrial Manual}):</t>
+    <t xml:space="preserve">WOAH-prescribed tests for international trade include ({ref010:WOAH, Terrestrial Manual}):</t>
   </si>
   <si>
     <t xml:space="preserve">For the detection of the agent (confirmation of clinical cases and individual animal freedom from infection prior to movement): RT-PCR and isolation in tissue culture.</t>
@@ -450,7 +450,7 @@
     <t xml:space="preserve">The CoVetLab consortium has been responsible for the systematic literature reviews since 2015, and has delivered story maps to EFSA since 2021. Partners are: Swedish National Veterinary Institute (SVA, Sweden); Wageningen Bioveterinary Research (WBVR, The Netherlands); Animal and Plant Health Agency (APHA; UK) and the University of Surrey (UK). </t>
   </si>
   <si>
-    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (OIE). {ref001:OIE-WAHIS} (OIE World Animal Health Information System) is the original source of these data.</t>
+    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (WOAH). {ref001:WOAH-WAHIS} (WOAH World Animal Health Information System) is the original source of these data.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA thanks the following experts for their specific contribution to this story map:</t>
@@ -501,7 +501,7 @@
     <t xml:space="preserve">ref001</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-WAHIS (OIE World Animal Health Information System)</t>
+    <t xml:space="preserve">WOAH-WAHIS (WOAH World Animal Health Information System)</t>
   </si>
   <si>
     <t xml:space="preserve">https://wahis.oie.int/</t>
@@ -528,7 +528,7 @@
     <t xml:space="preserve">ref005</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=0&amp;htmfile=chapitre_notification.htm</t>
@@ -555,7 +555,7 @@
     <t xml:space="preserve">ref008</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2013. VENEZUELAN EQUINE ENCEPHALITIS. Technical disease card. </t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2013. VENEZUELAN EQUINE ENCEPHALITIS. Technical disease card. </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Animal_Health_in_the_World/docs/pdf/Disease_cards/VEE.pdf</t>
@@ -564,7 +564,7 @@
     <t xml:space="preserve">ref009</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. VENEZUELAN EQUINE ENCEPHALOMYELITIS . Chapter 12.11. OIE Terrestrial Animal Health Code, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. VENEZUELAN EQUINE ENCEPHALOMYELITIS . Chapter 12.11. WOAH Terrestrial Animal Health Code, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=1&amp;htmfile=chapitre_vee.htm</t>
@@ -573,7 +573,7 @@
     <t xml:space="preserve">ref010</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2019. EQUINE ENCEPHALOMYELITIS (Eastern, Western and Venezuelan). Chapter 3.5.5. OIE Terrestrial Manual, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2019. EQUINE ENCEPHALOMYELITIS (Eastern, Western and Venezuelan). Chapter 3.5.5. WOAH Terrestrial Manual, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahm/3.05.05_EQUINE_ENCEPH_combined_EEE_WEE_VEE.pdf</t>

--- a/agents/VEED/VEED-Data-Contents.xlsx
+++ b/agents/VEED/VEED-Data-Contents.xlsx
@@ -126,7 +126,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref011:here}. Data fields are explained in this {ref012:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Disease</t>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref014:here}. Data fields are explained in this {ref015:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health</t>
@@ -177,7 +177,7 @@
     <t xml:space="preserve">HTML file</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact-VEED.html</t>
+    <t xml:space="preserve">ExperimentalInfections-VEED.html</t>
   </si>
   <si>
     <t xml:space="preserve">Agent</t>
@@ -216,7 +216,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref017:here}. Data fields are explained in this {ref018:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Survival-VEED.html</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref020:here}. Data fields are explained in this {ref021:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostic-VEED.html</t>

--- a/agents/VEED/VEED-Data-Contents.xlsx
+++ b/agents/VEED/VEED-Data-Contents.xlsx
@@ -219,7 +219,7 @@
     <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival-VEED.html</t>
+    <t xml:space="preserve">PathogenSurvival-VEED.html</t>
   </si>
   <si>
     <t xml:space="preserve">Transmission</t>

--- a/agents/VEED/VEED-Data-Contents.xlsx
+++ b/agents/VEED/VEED-Data-Contents.xlsx
@@ -357,7 +357,7 @@
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews (SLR) covering all vaccine efficacy studies  published in peer-reviewed literature in English since 1970, when evaluating vaccines approved for use in the European Union. </t>
   </si>
   <si>
-    <t xml:space="preserve">No vaccines jhad been authorised for use in the EU by the European Medicine Agency at the time of the latest SLR.  The next update is planned for 2022.</t>
+    <t xml:space="preserve">No vaccines jhad been authorised for use in the EU by the European Medicine Agency at the time of the latest SLR.  The next update is planned for 2023.</t>
   </si>
   <si>
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref023:here}, for pathogens which have available vaccines. Data fields are explained in this {ref024:read-me file}.</t>

--- a/agents/VEED/VEED-Data-Contents.xlsx
+++ b/agents/VEED/VEED-Data-Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DiseaseProfiles\agents\VEED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\Azure\storymaps\agents\VEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB18CD17-E67F-40C4-BE8F-DC75EE11706B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2B503B-D568-4BB7-8E4B-CEF4B6040C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3880" yWindow="8180" windowWidth="7230" windowHeight="3980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1168,13 +1168,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A144" sqref="A137:XFD144"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134:D134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>5</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>6</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>7</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>8</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>6</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>7</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>8</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>9</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>10</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>11</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>12</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>13</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>14</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>15</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>12</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>13</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>14</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>15</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>8</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>9</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>6</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>7</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>9</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>10</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>11</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>12</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>13</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>14</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>8</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>13</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>6</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>7</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>8</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>9</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>10</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>6</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>7</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>7</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>8</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>9</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>10</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>11</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>12</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>13</v>
       </c>
@@ -3443,16 +3443,16 @@
         <v>11</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>7</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>8</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>5</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>3</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>5</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>6</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>7</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>8</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>9</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>10</v>
       </c>
@@ -3889,9 +3889,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>164</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>176</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>179</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>182</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>191</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>194</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>197</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>203</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>206</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>212</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>218</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>221</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>224</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>227</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>230</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>233</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>236</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>242</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>245</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>248</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>251</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>254</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>257</v>
       </c>
